--- a/src/mahbub/pair_wise_p_values_Ttest/categorical_pairwise_p_values_visits.xlsx
+++ b/src/mahbub/pair_wise_p_values_Ttest/categorical_pairwise_p_values_visits.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Projects\PycharmProjects\PPMI_Research_on_Parkinson's\src\mahbub\pair_wise_p_values_Ttest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PPMI_Research_on_Parkinsons\src\mahbub\pair_wise_p_values_Ttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03307990-5EF1-4F19-98E4-E93134BA7C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1230B0A-3FD0-483F-86DC-B7C12A4CD56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="0" windowWidth="21600" windowHeight="16200" xr2:uid="{3C203302-A8CC-4D1F-A9A2-73A521D99480}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3C203302-A8CC-4D1F-A9A2-73A521D99480}"/>
   </bookViews>
   <sheets>
     <sheet name="categorical_pairwise_p_values_v" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -659,7 +672,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1003,7 +1036,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="G29" activeCellId="3" sqref="G2:G6 G8:G13 G20:G21 G29:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,8 +1753,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G31">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0.005</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/mahbub/pair_wise_p_values_Ttest/categorical_pairwise_p_values_visits.xlsx
+++ b/src/mahbub/pair_wise_p_values_Ttest/categorical_pairwise_p_values_visits.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28306"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PPMI_Research_on_Parkinsons\src\mahbub\pair_wise_p_values_Ttest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Projects\PycharmProjects\PPMI_Research_on_Parkinson's\src\mahbub\pair_wise_p_values_Ttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1230B0A-3FD0-483F-86DC-B7C12A4CD56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F251764-C8C4-40BF-A170-AFCFAAC46D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3C203302-A8CC-4D1F-A9A2-73A521D99480}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3C203302-A8CC-4D1F-A9A2-73A521D99480}"/>
   </bookViews>
   <sheets>
     <sheet name="categorical_pairwise_p_values_v" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>V1_V2</t>
   </si>
@@ -141,6 +128,9 @@
   </si>
   <si>
     <t>NP3TTAPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -672,7 +662,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1033,15 +1043,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C346AFA-6145-474C-BA0B-CEFC3C5E7853}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" activeCellId="3" sqref="G2:G6 G8:G13 G20:G21 G29:G30"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1084,7 +1094,7 @@
         <v>2.2581207181834598E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1107,7 +1117,7 @@
         <v>6.3034390135799203E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1130,7 +1140,7 @@
         <v>5.3191324803734204E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1153,7 +1163,7 @@
         <v>5.7741638963976205E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1176,7 +1186,7 @@
         <v>8.7281400152203897E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1199,7 +1209,7 @@
         <v>8.2289984460002505E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1222,7 +1232,7 @@
         <v>4.0480544618878202E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1245,7 +1255,7 @@
         <v>1.7827787684385601E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1268,7 +1278,7 @@
         <v>1.49510473259379E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1291,7 +1301,7 @@
         <v>1.6321943819334699E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1314,7 +1324,7 @@
         <v>2.9735362179927998E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1337,7 +1347,7 @@
         <v>3.8636035904106299E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1360,7 +1370,7 @@
         <v>0.385363905105025</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1383,7 +1393,7 @@
         <v>6.1233973570255097E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1404,6 +1414,9 @@
       </c>
       <c r="G16">
         <v>0.258160944196556</v>
+      </c>
+      <c r="N16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1753,7 +1766,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G31">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>0.005</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
